--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.282921990924</v>
+        <v>43.764002</v>
       </c>
       <c r="H2">
-        <v>42.282921990924</v>
+        <v>87.52800400000001</v>
       </c>
       <c r="I2">
-        <v>0.4600313869958126</v>
+        <v>0.4562749783297458</v>
       </c>
       <c r="J2">
-        <v>0.4600313869958126</v>
+        <v>0.3603824858286638</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>22.7699668602781</v>
+        <v>0.1427373333333334</v>
       </c>
       <c r="N2">
-        <v>22.7699668602781</v>
+        <v>0.428212</v>
       </c>
       <c r="O2">
-        <v>0.5028882591662869</v>
+        <v>0.003026671901159158</v>
       </c>
       <c r="P2">
-        <v>0.5028882591662869</v>
+        <v>0.003026671901159158</v>
       </c>
       <c r="Q2">
-        <v>962.7807324890637</v>
+        <v>6.246756941474668</v>
       </c>
       <c r="R2">
-        <v>962.7807324890637</v>
+        <v>37.48054164884801</v>
       </c>
       <c r="S2">
-        <v>0.2313443833681766</v>
+        <v>0.001380994656112646</v>
       </c>
       <c r="T2">
-        <v>0.2313443833681766</v>
+        <v>0.001090759543527506</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.282921990924</v>
+        <v>43.764002</v>
       </c>
       <c r="H3">
-        <v>42.282921990924</v>
+        <v>87.52800400000001</v>
       </c>
       <c r="I3">
-        <v>0.4600313869958126</v>
+        <v>0.4562749783297458</v>
       </c>
       <c r="J3">
-        <v>0.4600313869958126</v>
+        <v>0.3603824858286638</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.345510243681</v>
+        <v>23.50933666666667</v>
       </c>
       <c r="N3">
-        <v>22.345510243681</v>
+        <v>70.52800999999999</v>
       </c>
       <c r="O3">
-        <v>0.4935138823689058</v>
+        <v>0.498503419128077</v>
       </c>
       <c r="P3">
-        <v>0.4935138823689058</v>
+        <v>0.498503419128077</v>
       </c>
       <c r="Q3">
-        <v>944.833466480957</v>
+        <v>1028.862656898673</v>
       </c>
       <c r="R3">
-        <v>944.833466480957</v>
+        <v>6173.17594139204</v>
       </c>
       <c r="S3">
-        <v>0.227031875807856</v>
+        <v>0.2274546367599675</v>
       </c>
       <c r="T3">
-        <v>0.227031875807856</v>
+        <v>0.1796519013794647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.282921990924</v>
+        <v>43.764002</v>
       </c>
       <c r="H4">
-        <v>42.282921990924</v>
+        <v>87.52800400000001</v>
       </c>
       <c r="I4">
-        <v>0.4600313869958126</v>
+        <v>0.4562749783297458</v>
       </c>
       <c r="J4">
-        <v>0.4600313869958126</v>
+        <v>0.3603824858286638</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.162905211084962</v>
+        <v>23.23778533333333</v>
       </c>
       <c r="N4">
-        <v>0.162905211084962</v>
+        <v>69.71335599999999</v>
       </c>
       <c r="O4">
-        <v>0.003597858464807291</v>
+        <v>0.4927453124636983</v>
       </c>
       <c r="P4">
-        <v>0.003597858464807291</v>
+        <v>0.4927453124636983</v>
       </c>
       <c r="Q4">
-        <v>6.888108332220456</v>
+        <v>1016.978483803571</v>
       </c>
       <c r="R4">
-        <v>6.888108332220456</v>
+        <v>6101.870902821423</v>
       </c>
       <c r="S4">
-        <v>0.001655127819779923</v>
+        <v>0.2248273567664578</v>
       </c>
       <c r="T4">
-        <v>0.001655127819779923</v>
+        <v>0.1775767805860893</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.2770827323846</v>
+        <v>43.764002</v>
       </c>
       <c r="H5">
-        <v>12.2770827323846</v>
+        <v>87.52800400000001</v>
       </c>
       <c r="I5">
-        <v>0.1335726844718426</v>
+        <v>0.4562749783297458</v>
       </c>
       <c r="J5">
-        <v>0.1335726844718426</v>
+        <v>0.3603824858286638</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.7699668602781</v>
+        <v>0.269971</v>
       </c>
       <c r="N5">
-        <v>22.7699668602781</v>
+        <v>0.809913</v>
       </c>
       <c r="O5">
-        <v>0.5028882591662869</v>
+        <v>0.005724596507065466</v>
       </c>
       <c r="P5">
-        <v>0.5028882591662869</v>
+        <v>0.005724596507065466</v>
       </c>
       <c r="Q5">
-        <v>279.5487669572898</v>
+        <v>11.815011383942</v>
       </c>
       <c r="R5">
-        <v>279.5487669572898</v>
+        <v>70.890068303652</v>
       </c>
       <c r="S5">
-        <v>0.06717213476621266</v>
+        <v>0.002611990147207834</v>
       </c>
       <c r="T5">
-        <v>0.06717213476621266</v>
+        <v>0.002063044319582339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>12.2770827323846</v>
+        <v>0.08457633333333332</v>
       </c>
       <c r="H6">
-        <v>12.2770827323846</v>
+        <v>0.253729</v>
       </c>
       <c r="I6">
-        <v>0.1335726844718426</v>
+        <v>0.000881776412012686</v>
       </c>
       <c r="J6">
-        <v>0.1335726844718426</v>
+        <v>0.001044688369071241</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>22.345510243681</v>
+        <v>0.1427373333333334</v>
       </c>
       <c r="N6">
-        <v>22.345510243681</v>
+        <v>0.428212</v>
       </c>
       <c r="O6">
-        <v>0.4935138823689058</v>
+        <v>0.003026671901159158</v>
       </c>
       <c r="P6">
-        <v>0.4935138823689058</v>
+        <v>0.003026671901159158</v>
       </c>
       <c r="Q6">
-        <v>274.3376779590192</v>
+        <v>0.01207220028311111</v>
       </c>
       <c r="R6">
-        <v>274.3376779590192</v>
+        <v>0.108649802548</v>
       </c>
       <c r="S6">
-        <v>0.0659199740921359</v>
+        <v>2.668847889343738E-06</v>
       </c>
       <c r="T6">
-        <v>0.0659199740921359</v>
+        <v>3.161928932135713E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>12.2770827323846</v>
+        <v>0.08457633333333332</v>
       </c>
       <c r="H7">
-        <v>12.2770827323846</v>
+        <v>0.253729</v>
       </c>
       <c r="I7">
-        <v>0.1335726844718426</v>
+        <v>0.000881776412012686</v>
       </c>
       <c r="J7">
-        <v>0.1335726844718426</v>
+        <v>0.001044688369071241</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.162905211084962</v>
+        <v>23.50933666666667</v>
       </c>
       <c r="N7">
-        <v>0.162905211084962</v>
+        <v>70.52800999999999</v>
       </c>
       <c r="O7">
-        <v>0.003597858464807291</v>
+        <v>0.498503419128077</v>
       </c>
       <c r="P7">
-        <v>0.003597858464807291</v>
+        <v>0.498503419128077</v>
       </c>
       <c r="Q7">
-        <v>2.000000754026655</v>
+        <v>1.988333494365555</v>
       </c>
       <c r="R7">
-        <v>2.000000754026655</v>
+        <v>17.89500144929</v>
       </c>
       <c r="S7">
-        <v>0.0004805756134940523</v>
+        <v>0.0004395685562948119</v>
       </c>
       <c r="T7">
-        <v>0.0004805756134940523</v>
+        <v>0.000520780723905348</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>11.1428333172091</v>
+        <v>0.08457633333333332</v>
       </c>
       <c r="H8">
-        <v>11.1428333172091</v>
+        <v>0.253729</v>
       </c>
       <c r="I8">
-        <v>0.1212322333607681</v>
+        <v>0.000881776412012686</v>
       </c>
       <c r="J8">
-        <v>0.1212322333607681</v>
+        <v>0.001044688369071241</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.7699668602781</v>
+        <v>23.23778533333333</v>
       </c>
       <c r="N8">
-        <v>22.7699668602781</v>
+        <v>69.71335599999999</v>
       </c>
       <c r="O8">
-        <v>0.5028882591662869</v>
+        <v>0.4927453124636983</v>
       </c>
       <c r="P8">
-        <v>0.5028882591662869</v>
+        <v>0.4927453124636983</v>
       </c>
       <c r="Q8">
-        <v>253.7219453624539</v>
+        <v>1.965366678280444</v>
       </c>
       <c r="R8">
-        <v>253.7219453624539</v>
+        <v>17.688300104524</v>
       </c>
       <c r="S8">
-        <v>0.06096626678963774</v>
+        <v>0.0004344911936603098</v>
       </c>
       <c r="T8">
-        <v>0.06096626678963774</v>
+        <v>0.0005147652968451999</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>11.1428333172091</v>
+        <v>0.08457633333333332</v>
       </c>
       <c r="H9">
-        <v>11.1428333172091</v>
+        <v>0.253729</v>
       </c>
       <c r="I9">
-        <v>0.1212322333607681</v>
+        <v>0.000881776412012686</v>
       </c>
       <c r="J9">
-        <v>0.1212322333607681</v>
+        <v>0.001044688369071241</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.345510243681</v>
+        <v>0.269971</v>
       </c>
       <c r="N9">
-        <v>22.345510243681</v>
+        <v>0.809913</v>
       </c>
       <c r="O9">
-        <v>0.4935138823689058</v>
+        <v>0.005724596507065466</v>
       </c>
       <c r="P9">
-        <v>0.4935138823689058</v>
+        <v>0.005724596507065466</v>
       </c>
       <c r="Q9">
-        <v>248.9922960333259</v>
+        <v>0.02283315728633333</v>
       </c>
       <c r="R9">
-        <v>248.9922960333259</v>
+        <v>0.205498415577</v>
       </c>
       <c r="S9">
-        <v>0.05982979015412587</v>
+        <v>5.047814168220542E-06</v>
       </c>
       <c r="T9">
-        <v>0.05982979015412587</v>
+        <v>5.980419388557144E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,433 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.1428333172091</v>
+        <v>13.24529933333333</v>
       </c>
       <c r="H10">
-        <v>11.1428333172091</v>
+        <v>39.735898</v>
       </c>
       <c r="I10">
-        <v>0.1212322333607681</v>
+        <v>0.138092916326246</v>
       </c>
       <c r="J10">
-        <v>0.1212322333607681</v>
+        <v>0.1636061722357365</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.162905211084962</v>
+        <v>0.1427373333333334</v>
       </c>
       <c r="N10">
-        <v>0.162905211084962</v>
+        <v>0.428212</v>
       </c>
       <c r="O10">
-        <v>0.003597858464807291</v>
+        <v>0.003026671901159158</v>
       </c>
       <c r="P10">
-        <v>0.003597858464807291</v>
+        <v>0.003026671901159158</v>
       </c>
       <c r="Q10">
-        <v>1.815225613624496</v>
+        <v>1.890598706041778</v>
       </c>
       <c r="R10">
-        <v>1.815225613624496</v>
+        <v>17.015388354376</v>
       </c>
       <c r="S10">
-        <v>0.0004361764170045324</v>
+        <v>0.0004179619495937716</v>
       </c>
       <c r="T10">
-        <v>0.0004361764170045324</v>
+        <v>0.0004951822043621092</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.2826411876508</v>
+        <v>13.24529933333333</v>
       </c>
       <c r="H11">
-        <v>25.2826411876508</v>
+        <v>39.735898</v>
       </c>
       <c r="I11">
-        <v>0.2750710675806416</v>
+        <v>0.138092916326246</v>
       </c>
       <c r="J11">
-        <v>0.2750710675806416</v>
+        <v>0.1636061722357365</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.7699668602781</v>
+        <v>23.50933666666667</v>
       </c>
       <c r="N11">
-        <v>22.7699668602781</v>
+        <v>70.52800999999999</v>
       </c>
       <c r="O11">
-        <v>0.5028882591662869</v>
+        <v>0.498503419128077</v>
       </c>
       <c r="P11">
-        <v>0.5028882591662869</v>
+        <v>0.498503419128077</v>
       </c>
       <c r="Q11">
-        <v>575.6849019831109</v>
+        <v>311.3882012781089</v>
       </c>
       <c r="R11">
-        <v>575.6849019831109</v>
+        <v>2802.493811502979</v>
       </c>
       <c r="S11">
-        <v>0.1383300103226409</v>
+        <v>0.06883979094600108</v>
       </c>
       <c r="T11">
-        <v>0.1383300103226409</v>
+        <v>0.08155823624997169</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.2826411876508</v>
+        <v>13.24529933333333</v>
       </c>
       <c r="H12">
-        <v>25.2826411876508</v>
+        <v>39.735898</v>
       </c>
       <c r="I12">
-        <v>0.2750710675806416</v>
+        <v>0.138092916326246</v>
       </c>
       <c r="J12">
-        <v>0.2750710675806416</v>
+        <v>0.1636061722357365</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.345510243681</v>
+        <v>23.23778533333333</v>
       </c>
       <c r="N12">
-        <v>22.345510243681</v>
+        <v>69.71335599999999</v>
       </c>
       <c r="O12">
-        <v>0.4935138823689058</v>
+        <v>0.4927453124636983</v>
       </c>
       <c r="P12">
-        <v>0.4935138823689058</v>
+        <v>0.4927453124636983</v>
       </c>
       <c r="Q12">
-        <v>564.9535176459622</v>
+        <v>307.7914225837431</v>
       </c>
       <c r="R12">
-        <v>564.9535176459622</v>
+        <v>2770.122803253687</v>
       </c>
       <c r="S12">
-        <v>0.1357513904890821</v>
+        <v>0.06804463720419944</v>
       </c>
       <c r="T12">
-        <v>0.1357513904890821</v>
+        <v>0.08061617445928759</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.2826411876508</v>
+        <v>13.24529933333333</v>
       </c>
       <c r="H13">
-        <v>25.2826411876508</v>
+        <v>39.735898</v>
       </c>
       <c r="I13">
-        <v>0.2750710675806416</v>
+        <v>0.138092916326246</v>
       </c>
       <c r="J13">
-        <v>0.2750710675806416</v>
+        <v>0.1636061722357365</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.162905211084962</v>
+        <v>0.269971</v>
       </c>
       <c r="N13">
-        <v>0.162905211084962</v>
+        <v>0.809913</v>
       </c>
       <c r="O13">
-        <v>0.003597858464807291</v>
+        <v>0.005724596507065466</v>
       </c>
       <c r="P13">
-        <v>0.003597858464807291</v>
+        <v>0.005724596507065466</v>
       </c>
       <c r="Q13">
-        <v>4.118673999459608</v>
+        <v>3.575846706319334</v>
       </c>
       <c r="R13">
-        <v>4.118673999459608</v>
+        <v>32.182620356874</v>
       </c>
       <c r="S13">
-        <v>0.0009896667689185898</v>
+        <v>0.0007905262264517116</v>
       </c>
       <c r="T13">
-        <v>0.0009896667689185898</v>
+        <v>0.000936579322115048</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9276449328767991</v>
+        <v>11.50197566666667</v>
       </c>
       <c r="H14">
-        <v>0.9276449328767991</v>
+        <v>34.505927</v>
       </c>
       <c r="I14">
-        <v>0.01009262759093499</v>
+        <v>0.1199173626319091</v>
       </c>
       <c r="J14">
-        <v>0.01009262759093499</v>
+        <v>0.1420726073918286</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>22.7699668602781</v>
+        <v>0.1427373333333334</v>
       </c>
       <c r="N14">
-        <v>22.7699668602781</v>
+        <v>0.428212</v>
       </c>
       <c r="O14">
-        <v>0.5028882591662869</v>
+        <v>0.003026671901159158</v>
       </c>
       <c r="P14">
-        <v>0.5028882591662869</v>
+        <v>0.003026671901159158</v>
       </c>
       <c r="Q14">
-        <v>21.12244437970962</v>
+        <v>1.641761334724889</v>
       </c>
       <c r="R14">
-        <v>21.12244437970962</v>
+        <v>14.775852012524</v>
       </c>
       <c r="S14">
-        <v>0.005075463919618932</v>
+        <v>0.0003629505119391126</v>
       </c>
       <c r="T14">
-        <v>0.005075463919618932</v>
+        <v>0.0004300071687172647</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9276449328767991</v>
+        <v>11.50197566666667</v>
       </c>
       <c r="H15">
-        <v>0.9276449328767991</v>
+        <v>34.505927</v>
       </c>
       <c r="I15">
-        <v>0.01009262759093499</v>
+        <v>0.1199173626319091</v>
       </c>
       <c r="J15">
-        <v>0.01009262759093499</v>
+        <v>0.1420726073918286</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>22.345510243681</v>
+        <v>23.50933666666667</v>
       </c>
       <c r="N15">
-        <v>22.345510243681</v>
+        <v>70.52800999999999</v>
       </c>
       <c r="O15">
-        <v>0.4935138823689058</v>
+        <v>0.498503419128077</v>
       </c>
       <c r="P15">
-        <v>0.4935138823689058</v>
+        <v>0.498503419128077</v>
       </c>
       <c r="Q15">
-        <v>20.72869935009729</v>
+        <v>270.4038182794744</v>
       </c>
       <c r="R15">
-        <v>20.72869935009729</v>
+        <v>2433.63436451527</v>
       </c>
       <c r="S15">
-        <v>0.004980851825705863</v>
+        <v>0.05977921528482819</v>
       </c>
       <c r="T15">
-        <v>0.004980851825705863</v>
+        <v>0.07082368054926748</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9276449328767991</v>
+        <v>11.50197566666667</v>
       </c>
       <c r="H16">
-        <v>0.9276449328767991</v>
+        <v>34.505927</v>
       </c>
       <c r="I16">
-        <v>0.01009262759093499</v>
+        <v>0.1199173626319091</v>
       </c>
       <c r="J16">
-        <v>0.01009262759093499</v>
+        <v>0.1420726073918286</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.162905211084962</v>
+        <v>23.23778533333333</v>
       </c>
       <c r="N16">
-        <v>0.162905211084962</v>
+        <v>69.71335599999999</v>
       </c>
       <c r="O16">
-        <v>0.003597858464807291</v>
+        <v>0.4927453124636983</v>
       </c>
       <c r="P16">
-        <v>0.003597858464807291</v>
+        <v>0.4927453124636983</v>
       </c>
       <c r="Q16">
-        <v>0.1511181936021904</v>
+        <v>267.2804414512235</v>
       </c>
       <c r="R16">
-        <v>0.1511181936021904</v>
+        <v>2405.523973061011</v>
       </c>
       <c r="S16">
-        <v>3.631184561019306E-05</v>
+        <v>0.05908871831988268</v>
       </c>
       <c r="T16">
-        <v>3.631184561019306E-05</v>
+        <v>0.07000561132181894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>11.50197566666667</v>
+      </c>
+      <c r="H17">
+        <v>34.505927</v>
+      </c>
+      <c r="I17">
+        <v>0.1199173626319091</v>
+      </c>
+      <c r="J17">
+        <v>0.1420726073918286</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.269971</v>
+      </c>
+      <c r="N17">
+        <v>0.809913</v>
+      </c>
+      <c r="O17">
+        <v>0.005724596507065466</v>
+      </c>
+      <c r="P17">
+        <v>0.005724596507065466</v>
+      </c>
+      <c r="Q17">
+        <v>3.105199872705667</v>
+      </c>
+      <c r="R17">
+        <v>27.946798854351</v>
+      </c>
+      <c r="S17">
+        <v>0.0006864785152591299</v>
+      </c>
+      <c r="T17">
+        <v>0.0008133083520249455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>26.21174933333333</v>
+      </c>
+      <c r="H18">
+        <v>78.635248</v>
+      </c>
+      <c r="I18">
+        <v>0.2732786037038248</v>
+      </c>
+      <c r="J18">
+        <v>0.3237679925614831</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1427373333333334</v>
+      </c>
+      <c r="N18">
+        <v>0.428212</v>
+      </c>
+      <c r="O18">
+        <v>0.003026671901159158</v>
+      </c>
+      <c r="P18">
+        <v>0.003026671901159158</v>
+      </c>
+      <c r="Q18">
+        <v>3.741395201841778</v>
+      </c>
+      <c r="R18">
+        <v>33.67255681657601</v>
+      </c>
+      <c r="S18">
+        <v>0.0008271246710183756</v>
+      </c>
+      <c r="T18">
+        <v>0.0009799394855805484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>26.21174933333333</v>
+      </c>
+      <c r="H19">
+        <v>78.635248</v>
+      </c>
+      <c r="I19">
+        <v>0.2732786037038248</v>
+      </c>
+      <c r="J19">
+        <v>0.3237679925614831</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>23.50933666666667</v>
+      </c>
+      <c r="N19">
+        <v>70.52800999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.498503419128077</v>
+      </c>
+      <c r="P19">
+        <v>0.498503419128077</v>
+      </c>
+      <c r="Q19">
+        <v>616.2208396996089</v>
+      </c>
+      <c r="R19">
+        <v>5545.98755729648</v>
+      </c>
+      <c r="S19">
+        <v>0.1362303183209034</v>
+      </c>
+      <c r="T19">
+        <v>0.1613994512961331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>26.21174933333333</v>
+      </c>
+      <c r="H20">
+        <v>78.635248</v>
+      </c>
+      <c r="I20">
+        <v>0.2732786037038248</v>
+      </c>
+      <c r="J20">
+        <v>0.3237679925614831</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>23.23778533333333</v>
+      </c>
+      <c r="N20">
+        <v>69.71335599999999</v>
+      </c>
+      <c r="O20">
+        <v>0.4927453124636983</v>
+      </c>
+      <c r="P20">
+        <v>0.4927453124636983</v>
+      </c>
+      <c r="Q20">
+        <v>609.103004219143</v>
+      </c>
+      <c r="R20">
+        <v>5481.927037972288</v>
+      </c>
+      <c r="S20">
+        <v>0.1346567509716843</v>
+      </c>
+      <c r="T20">
+        <v>0.1595351606604524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>26.21174933333333</v>
+      </c>
+      <c r="H21">
+        <v>78.635248</v>
+      </c>
+      <c r="I21">
+        <v>0.2732786037038248</v>
+      </c>
+      <c r="J21">
+        <v>0.3237679925614831</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.269971</v>
+      </c>
+      <c r="N21">
+        <v>0.809913</v>
+      </c>
+      <c r="O21">
+        <v>0.005724596507065466</v>
+      </c>
+      <c r="P21">
+        <v>0.005724596507065466</v>
+      </c>
+      <c r="Q21">
+        <v>7.076412179269334</v>
+      </c>
+      <c r="R21">
+        <v>63.687709613424</v>
+      </c>
+      <c r="S21">
+        <v>0.001564409740218643</v>
+      </c>
+      <c r="T21">
+        <v>0.001853441119317064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.1082465</v>
+      </c>
+      <c r="H22">
+        <v>2.216493</v>
+      </c>
+      <c r="I22">
+        <v>0.01155436259626157</v>
+      </c>
+      <c r="J22">
+        <v>0.009126053613216547</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1427373333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.428212</v>
+      </c>
+      <c r="O22">
+        <v>0.003026671901159158</v>
+      </c>
+      <c r="P22">
+        <v>0.003026671901159158</v>
+      </c>
+      <c r="Q22">
+        <v>0.158188150086</v>
+      </c>
+      <c r="R22">
+        <v>0.949128900516</v>
+      </c>
+      <c r="S22">
+        <v>3.497126460590927E-05</v>
+      </c>
+      <c r="T22">
+        <v>2.762157003959454E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.1082465</v>
+      </c>
+      <c r="H23">
+        <v>2.216493</v>
+      </c>
+      <c r="I23">
+        <v>0.01155436259626157</v>
+      </c>
+      <c r="J23">
+        <v>0.009126053613216547</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>23.50933666666667</v>
+      </c>
+      <c r="N23">
+        <v>70.52800999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.498503419128077</v>
+      </c>
+      <c r="P23">
+        <v>0.498503419128077</v>
+      </c>
+      <c r="Q23">
+        <v>26.054140078155</v>
+      </c>
+      <c r="R23">
+        <v>156.32484046893</v>
+      </c>
+      <c r="S23">
+        <v>0.005759889260081958</v>
+      </c>
+      <c r="T23">
+        <v>0.00454936892933459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.1082465</v>
+      </c>
+      <c r="H24">
+        <v>2.216493</v>
+      </c>
+      <c r="I24">
+        <v>0.01155436259626157</v>
+      </c>
+      <c r="J24">
+        <v>0.009126053613216547</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>23.23778533333333</v>
+      </c>
+      <c r="N24">
+        <v>69.71335599999999</v>
+      </c>
+      <c r="O24">
+        <v>0.4927453124636983</v>
+      </c>
+      <c r="P24">
+        <v>0.4927453124636983</v>
+      </c>
+      <c r="Q24">
+        <v>25.753194263418</v>
+      </c>
+      <c r="R24">
+        <v>154.519165580508</v>
+      </c>
+      <c r="S24">
+        <v>0.005693358007813776</v>
+      </c>
+      <c r="T24">
+        <v>0.00449682013920485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.1082465</v>
+      </c>
+      <c r="H25">
+        <v>2.216493</v>
+      </c>
+      <c r="I25">
+        <v>0.01155436259626157</v>
+      </c>
+      <c r="J25">
+        <v>0.009126053613216547</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.269971</v>
+      </c>
+      <c r="N25">
+        <v>0.809913</v>
+      </c>
+      <c r="O25">
+        <v>0.005724596507065466</v>
+      </c>
+      <c r="P25">
+        <v>0.005724596507065466</v>
+      </c>
+      <c r="Q25">
+        <v>0.2991944158515</v>
+      </c>
+      <c r="R25">
+        <v>1.795166495109</v>
+      </c>
+      <c r="S25">
+        <v>6.614406375992686E-05</v>
+      </c>
+      <c r="T25">
+        <v>5.224297463751163E-05</v>
       </c>
     </row>
   </sheetData>
